--- a/project_data.xlsx
+++ b/project_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Title</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>./Vet.html</t>
+  </si>
+  <si>
+    <t>Fantasy Football</t>
+  </si>
+  <si>
+    <t>Fantasy Football Site with weekly updates</t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -475,6 +481,20 @@
         <v>11</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
